--- a/results/simian_stats_df_160810/fragment_stats.xlsx
+++ b/results/simian_stats_df_160810/fragment_stats.xlsx
@@ -2750,7 +2750,7 @@
   <dimension ref="A1:M790"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H2" sqref="H2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2872,8 +2872,8 @@
         <v>2.7104497241531131</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M8" si="0">AVERAGE(F3:F791)</f>
-        <v>0.25828993836261949</v>
+        <f>_xlfn.STDEV.P(F2:F790)</f>
+        <v>0.20713962154342028</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2907,8 +2907,8 @@
         <v>49</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.25849285880616057</v>
+        <f>MAX(F2:F790)</f>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2942,8 +2942,8 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.25847919734251606</v>
+        <f>MIN(F2:F790)</f>
+        <v>9.9601593625498006E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2977,8 +2977,8 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0.25833914402367653</v>
+        <f>MEDIAN(F2:F790)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -3012,8 +3012,8 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>0.25771202558493117</v>
+        <f>_xlfn.MODE.MULT(F2:F790)</f>
+        <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
